--- a/pred_ohlcv/54_21/2019-10-26 KNC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 KNC ohlcv.xlsx
@@ -938,7 +938,7 @@
         <v>-1022986.287103483</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-1023550.183303483</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-1016093.616803483</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-1016283.616803483</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-1016408.758003483</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-1011347.810803483</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-1011631.033303483</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-1011631.033303483</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-1033555.87597824</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-1026380.63307824</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-1026380.63307824</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-1026382.72107824</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-1026380.72107824</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-1026365.19307824</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-1027175.57007824</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-1027175.57007824</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-1027425.57007824</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-1027394.15307824</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-1033351.16713287</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-1036361.25233287</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-1034661.25233287</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-1079832.235232869</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-1080059.899232869</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-1080059.899232869</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-1082411.595832869</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-1079634.187232869</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-1071085.253832869</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-1071085.253832869</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-1071960.034532869</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-1136559.463932869</v>
       </c>
       <c r="H291">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-1136559.463932869</v>
       </c>
       <c r="H293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-1135084.463932869</v>
       </c>
       <c r="H294">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-1143489.562532869</v>
       </c>
       <c r="H298">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-1143254.922532869</v>
       </c>
       <c r="H299">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-1143438.642432869</v>
       </c>
       <c r="H300">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-1150007.701132869</v>
       </c>
       <c r="H301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-26 KNC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 KNC ohlcv.xlsx
@@ -938,7 +938,7 @@
         <v>-1022986.287103483</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-1023550.183303483</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-1016093.616803483</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-1016283.616803483</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-1016408.758003483</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-1011347.810803483</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-1011631.033303483</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-1011631.033303483</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-1033555.87597824</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-1033331.69417824</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-1033331.69417824</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-1033331.69417824</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-1033331.69417824</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-1033331.69417824</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-1028591.78847824</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-1026380.63307824</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-1026382.72107824</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-1026380.72107824</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-1026365.19307824</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-1027175.57007824</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-1027175.57007824</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-1027425.57007824</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-1036433.29013287</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-1079832.235232869</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-1080059.899232869</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-1080059.899232869</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-1082411.595832869</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-1079634.187232869</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-1052552.894532869</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-1054308.066932869</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-1054308.066932869</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-1047887.762632869</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-1044732.426332869</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-1071085.253832869</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-1071085.253832869</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-1071960.034532869</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-1143254.922532869</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-1143438.642432869</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-1150007.701132869</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:8">
